--- a/ONCHO/Impact Assessments/Nigeria/2024/adamawa/ng_oncho_stop_202404_2_part_adam.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/adamawa/ng_oncho_stop_202404_2_part_adam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\ogun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\adamawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A5DB97-FC70-44E2-B976-BBC207F4F2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55354F6A-1A2D-4CD4-B4AE-60E73A3D676C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -273,10 +273,10 @@
     <t>community</t>
   </si>
   <si>
-    <t>ng_oncho_stop_202403_2_part_ogun</t>
-  </si>
-  <si>
-    <t>(2024 Mar) - 2. Participant Form Ogun State</t>
+    <t>ng_oncho_stop_202404_2_part_adam</t>
+  </si>
+  <si>
+    <t>(Adamawa State 2024 Apr) - 2. Participant Form</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
@@ -1227,7 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ONCHO/Impact Assessments/Nigeria/2024/adamawa/ng_oncho_stop_202404_2_part_adam.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/adamawa/ng_oncho_stop_202404_2_part_adam.xlsx
@@ -8,16 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\adamawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55354F6A-1A2D-4CD4-B4AE-60E73A3D676C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFED510-2212-48EE-A8AF-9CAA0C36C1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -273,10 +286,10 @@
     <t>community</t>
   </si>
   <si>
-    <t>ng_oncho_stop_202404_2_part_adam</t>
-  </si>
-  <si>
-    <t>(Adamawa State 2024 Apr) - 2. Participant Form</t>
+    <t>(Adamawa State 2024 Apr) - 2. Participant Form V2</t>
+  </si>
+  <si>
+    <t>ng_oncho_stop_202404_2_part_adam_v2</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
@@ -1227,14 +1240,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="49.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1250,12 +1264,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" s="15" t="s">
         <v>80</v>
       </c>
     </row>
